--- a/Präsentationen/Meilensteinplan/Meilensteinplan_02052020.xlsx
+++ b/Präsentationen/Meilensteinplan/Meilensteinplan_02052020.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Projektplaner" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Projektplaner!$4:$7</definedName>
@@ -216,10 +217,10 @@
     <t>Konzeptionierung Post-Processing statische Karte</t>
   </si>
   <si>
-    <t>Anforderungserhebung und Testspezifikation</t>
+    <t>MS 7: Implementierungsdokumentation/Masterarbeit/HSHL-Wiki</t>
   </si>
   <si>
-    <t>MS 7: Implementierungsdokumentation/Masterarbeit/HSHL-Wiki</t>
+    <t>Anforderungserhebung und Testspezifikationen</t>
   </si>
 </sst>
 </file>
@@ -851,6 +852,12 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="10" fillId="14" borderId="2" xfId="3" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -916,12 +923,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="14" borderId="2" xfId="3" applyFill="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -1389,10 +1390,10 @@
   <dimension ref="B1:BO49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1419,115 +1420,115 @@
       <c r="D2" s="23"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="65">
         <v>9</v>
       </c>
       <c r="J2" s="12"/>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="58"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="60"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="58"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60"/>
       <c r="U2" s="14"/>
-      <c r="V2" s="53" t="s">
+      <c r="V2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="60"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="62"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="65" t="s">
+      <c r="AA2" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="67"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="69"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
     </row>
     <row r="3" spans="2:67" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="64"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="66"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
       <c r="P3" s="38"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="60"/>
       <c r="U3" s="37"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="60"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="62"/>
       <c r="Z3" s="17"/>
-      <c r="AA3" s="53" t="s">
+      <c r="AA3" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="54"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="56"/>
     </row>
     <row r="4" spans="2:67" s="10" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="53" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="13" t="s">
@@ -1535,9 +1536,9 @@
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
@@ -1557,12 +1558,12 @@
       </c>
     </row>
     <row r="5" spans="2:67" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="47"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="51"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="31">
         <v>10</v>
       </c>
@@ -1658,12 +1659,12 @@
       </c>
     </row>
     <row r="6" spans="2:67" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="47"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="53"/>
       <c r="H6" s="13" t="s">
         <v>12</v>
       </c>
@@ -1686,15 +1687,15 @@
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
-      <c r="AC6" s="69"/>
+      <c r="AC6" s="47"/>
     </row>
     <row r="7" spans="2:67" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="48"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="52"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="3">
         <v>1</v>
       </c>
@@ -1758,7 +1759,7 @@
       <c r="AB7" s="3">
         <v>21</v>
       </c>
-      <c r="AC7" s="68">
+      <c r="AC7" s="46">
         <v>22</v>
       </c>
       <c r="AD7" s="3">
@@ -2518,7 +2519,7 @@
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="43">
         <v>5</v>
@@ -2963,17 +2964,11 @@
         <v>16</v>
       </c>
       <c r="C22" s="44">
-        <v>4</v>
-      </c>
-      <c r="D22" s="44">
-        <v>2</v>
-      </c>
-      <c r="E22" s="44">
-        <v>3</v>
-      </c>
-      <c r="F22" s="44">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="26"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
@@ -3180,18 +3175,10 @@
       <c r="B25" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="44">
-        <v>6</v>
-      </c>
-      <c r="D25" s="44">
-        <v>3</v>
-      </c>
-      <c r="E25" s="44">
-        <v>2</v>
-      </c>
-      <c r="F25" s="44">
-        <v>3</v>
-      </c>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="26"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
@@ -3542,15 +3529,9 @@
       <c r="B30" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="44">
-        <v>3</v>
-      </c>
-      <c r="D30" s="44">
-        <v>6</v>
-      </c>
-      <c r="E30" s="44">
-        <v>3</v>
-      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
       <c r="F30" s="44" t="s">
         <v>23</v>
       </c>
@@ -3585,12 +3566,8 @@
       <c r="B33" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="44">
-        <v>15</v>
-      </c>
-      <c r="D33" s="44">
-        <v>1</v>
-      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
       <c r="E33" s="44" t="s">
         <v>23</v>
       </c>
@@ -3602,12 +3579,8 @@
     </row>
     <row r="34" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="42"/>
-      <c r="C34" s="45">
-        <v>16</v>
-      </c>
-      <c r="D34" s="45">
-        <v>1</v>
-      </c>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="45" t="s">
         <v>23</v>
       </c>
@@ -3623,12 +3596,8 @@
       <c r="B35" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="44">
-        <v>17</v>
-      </c>
-      <c r="D35" s="44">
-        <v>1</v>
-      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="44" t="s">
         <v>23</v>
       </c>
@@ -3640,12 +3609,8 @@
     </row>
     <row r="36" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="40"/>
-      <c r="C36" s="43">
-        <v>15</v>
-      </c>
-      <c r="D36" s="43">
-        <v>7</v>
-      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="43" t="s">
         <v>23</v>
       </c>
@@ -3658,14 +3623,10 @@
     </row>
     <row r="37" spans="2:29" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="44">
-        <v>15</v>
-      </c>
-      <c r="D37" s="44">
-        <v>7</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
       <c r="E37" s="44" t="s">
         <v>23</v>
       </c>
@@ -3966,4 +3927,16 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>